--- a/OR_volleyball_system/group_generate.xlsx
+++ b/OR_volleyball_system/group_generate.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>政治A</t>
+          <t>機械A</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -489,7 +489,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>物治職治</t>
+          <t>中文物理</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -504,7 +504,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>工海</t>
+          <t>政治B</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>外文</t>
+          <t>材料資工</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -534,7 +534,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>生科</t>
+          <t>電機</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -549,7 +549,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>土木B</t>
+          <t>社會社工</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -564,7 +564,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>農藝</t>
+          <t>人類哲學</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -579,7 +579,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>護理</t>
+          <t>動科</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -594,7 +594,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>電機</t>
+          <t>經濟</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>生傳</t>
+          <t>化工B</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -624,7 +624,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>政治B</t>
+          <t>會計</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>動科</t>
+          <t>護理</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>機械A</t>
+          <t>國企A</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -669,7 +669,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>機械B</t>
+          <t>生傳</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -684,7 +684,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>森林</t>
+          <t>國企B</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -699,7 +699,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>農化生技</t>
+          <t>外文</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -714,7 +714,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>經濟</t>
+          <t>生科</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -729,7 +729,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>中文物理</t>
+          <t>物治職治</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -744,7 +744,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>國企B</t>
+          <t>獸醫</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -774,7 +774,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>國企A</t>
+          <t>化學</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -789,7 +789,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>社會社工</t>
+          <t>植微昆蟲</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>獸醫</t>
+          <t>森林</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -834,7 +834,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>化學</t>
+          <t>政治A</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -849,7 +849,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>植微昆蟲</t>
+          <t>工管</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>財金</t>
+          <t>農藝</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -909,7 +909,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>工管</t>
+          <t>機械B</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -939,7 +939,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>人類哲學</t>
+          <t>財金</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -954,11 +954,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>化工B</t>
+          <t>日文戲劇</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -969,11 +969,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>會計</t>
+          <t>土木B</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -984,7 +984,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>材料資工</t>
+          <t>農化生技</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>日文戲劇</t>
+          <t>工海</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1116,10 +1116,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1147,10 +1147,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
         <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -1326,19 +1326,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
         <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1443,13 +1443,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1563,10 +1563,10 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>

--- a/OR_volleyball_system/group_generate.xlsx
+++ b/OR_volleyball_system/group_generate.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>機械A</t>
+          <t>電機</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -489,7 +489,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>中文物理</t>
+          <t>地質地理</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -504,7 +504,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>政治B</t>
+          <t>森林</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>材料資工</t>
+          <t>農經生工</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -534,7 +534,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>電機</t>
+          <t>經濟</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -549,7 +549,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>社會社工</t>
+          <t>生傳</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -564,7 +564,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>人類哲學</t>
+          <t>會計</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -594,7 +594,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>經濟</t>
+          <t>園藝</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -624,7 +624,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>會計</t>
+          <t>政治B</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>護理</t>
+          <t>法律</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>國企A</t>
+          <t>生科</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -669,7 +669,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>生傳</t>
+          <t>物治職治</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -684,7 +684,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>國企B</t>
+          <t>藥學</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -699,7 +699,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>外文</t>
+          <t>材料資工</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -714,7 +714,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>生科</t>
+          <t>國企A</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -729,7 +729,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>物治職治</t>
+          <t>機械B</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -744,7 +744,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>獸醫</t>
+          <t>日文戲劇</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -759,7 +759,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>農經生工</t>
+          <t>護理</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -789,7 +789,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>植微昆蟲</t>
+          <t>工管</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>森林</t>
+          <t>工海</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -819,7 +819,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>法律</t>
+          <t>土木A</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -834,7 +834,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>政治A</t>
+          <t>機械A</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -849,7 +849,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>工管</t>
+          <t>土木B</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -864,7 +864,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>農藝</t>
+          <t>國企B</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -879,7 +879,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>土木A</t>
+          <t>外文</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -894,7 +894,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>園藝</t>
+          <t>政治A</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -909,7 +909,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>機械B</t>
+          <t>中文物理</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -924,7 +924,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>藥學</t>
+          <t>獸醫</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -939,7 +939,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>財金</t>
+          <t>人類哲學</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -954,11 +954,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>日文戲劇</t>
+          <t>農化生技</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>土木B</t>
+          <t>植微昆蟲</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -984,11 +984,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>農化生技</t>
+          <t>社會社工</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -999,11 +999,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>地質地理</t>
+          <t>農藝</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>工海</t>
+          <t>財金</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1116,16 +1116,16 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -1150,13 +1150,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1335,10 +1335,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1440,10 +1440,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
